--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\100-days-of-code-srajat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2682E7E5-A67E-43E4-A5DB-5B3D2FDA2FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE495E6D-1D9F-4A16-ACA3-1F89CF0A240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="2" xr2:uid="{98CC105A-234D-4119-BF40-9FE794B00565}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="132">
   <si>
     <t>Questions</t>
   </si>
@@ -418,6 +418,21 @@
   </si>
   <si>
     <t>Product of Digits</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Find the reverse of a string.</t>
+  </si>
+  <si>
+    <t>Find the Fibonacci series using both simple and recursion.</t>
+  </si>
+  <si>
+    <t>Leap year using %4, %100, %400</t>
+  </si>
+  <si>
+    <t>Delhi Odd-Even rule using If and for loop.</t>
   </si>
 </sst>
 </file>
@@ -922,7 +937,7 @@
       </c>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1503,7 +1518,7 @@
   <dimension ref="A4:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1568,16 +1583,28 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="10" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
@@ -1640,11 +1667,13 @@
       <c r="F22" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\100-days-of-code-srajat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE495E6D-1D9F-4A16-ACA3-1F89CF0A240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C56735-A354-4223-B1B7-49AE110FFBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="2" xr2:uid="{98CC105A-234D-4119-BF40-9FE794B00565}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
   <si>
     <t>Questions</t>
   </si>
@@ -433,6 +433,30 @@
   </si>
   <si>
     <t>Delhi Odd-Even rule using If and for loop.</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>I solved LCM and learnt that we must use long for large numbers</t>
+  </si>
+  <si>
+    <t>I did problem on Armstrong Number.</t>
+  </si>
+  <si>
+    <t>Socks Pair</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>To find the random number generated in apex</t>
+  </si>
+  <si>
+    <t>Linked-In; Rajesh &amp; Sri Sai</t>
+  </si>
+  <si>
+    <t>I did questions on Star Shapes</t>
   </si>
 </sst>
 </file>
@@ -500,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -549,11 +573,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -577,7 +612,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -585,6 +635,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1515,30 +1568,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA90A44-27CF-4EE2-AF22-D206370FACFE}">
-  <dimension ref="A4:F22"/>
+  <dimension ref="A4:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="6" max="6" width="44.453125" customWidth="1"/>
+    <col min="6" max="6" width="44.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="26" x14ac:dyDescent="0.6">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.6">
+      <c r="A4" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="18"/>
+      <c r="E4" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="18"/>
+      <c r="H4" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9" t="s">
         <v>120</v>
       </c>
@@ -1548,126 +1607,179 @@
       <c r="E7" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="F8" s="12"/>
+      <c r="H8" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="F16" s="12"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="F17" s="12"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="F18" s="12"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="F19" s="12"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="F20" s="12"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F21" s="12"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="F22" s="12"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="E13:E15"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:F4"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\100-days-of-code-srajat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C56735-A354-4223-B1B7-49AE110FFBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA5589A-8DDB-4780-BFCE-41B07B617C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="2" xr2:uid="{98CC105A-234D-4119-BF40-9FE794B00565}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{98CC105A-234D-4119-BF40-9FE794B00565}"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="110">
   <si>
     <t>Questions</t>
   </si>
@@ -45,27 +45,6 @@
     <t>Input a year and find whether it is a leap year or not.</t>
   </si>
   <si>
-    <t>Write a program to print whether a number is even or odd, also take input from the user.</t>
-  </si>
-  <si>
-    <t>Take name as input and print a greeting message for that particular name.</t>
-  </si>
-  <si>
-    <t>Write a program to input principal, time, and rate (P, T, R) from the user and find Simple Interest.</t>
-  </si>
-  <si>
-    <t>Take in two numbers and an operator (+, -, *, /) and calculate the value. (Use if conditions)</t>
-  </si>
-  <si>
-    <t>Take 2 numbers as input and print the largest number.</t>
-  </si>
-  <si>
-    <t>Input currency in rupees and output in USD.</t>
-  </si>
-  <si>
-    <t>To calculate Fibonacci Series up to n numbers.</t>
-  </si>
-  <si>
     <t>To find out whether the given String is Palindrome or not.</t>
   </si>
   <si>
@@ -75,75 +54,6 @@
     <t>Take 2 numbers as inputs and find their HCF and LCM.</t>
   </si>
   <si>
-    <t>Keep taking numbers as inputs till the user enters ‘x’, after that print sum of all.</t>
-  </si>
-  <si>
-    <t>Area Of Circle Java Program</t>
-  </si>
-  <si>
-    <t>Area Of Triangle</t>
-  </si>
-  <si>
-    <t>Area Of Rectangle Program</t>
-  </si>
-  <si>
-    <t>Area Of Isosceles Triangle</t>
-  </si>
-  <si>
-    <t>Area Of Parallelogram</t>
-  </si>
-  <si>
-    <t>Area Of Rhombus</t>
-  </si>
-  <si>
-    <t>Area Of Equilateral Triangle</t>
-  </si>
-  <si>
-    <t>Perimeter Of Circle</t>
-  </si>
-  <si>
-    <t>Perimeter Of Equilateral Triangle</t>
-  </si>
-  <si>
-    <t>Perimeter Of Parallelogram</t>
-  </si>
-  <si>
-    <t>Perimeter Of Rectangle</t>
-  </si>
-  <si>
-    <t>Perimeter Of Square</t>
-  </si>
-  <si>
-    <t>Perimeter Of Rhombus</t>
-  </si>
-  <si>
-    <t>Volume Of Cone Java Program</t>
-  </si>
-  <si>
-    <t>Volume Of Prism</t>
-  </si>
-  <si>
-    <t>Volume Of Cylinder</t>
-  </si>
-  <si>
-    <t>Volume Of Sphere</t>
-  </si>
-  <si>
-    <t>Volume Of Pyramid</t>
-  </si>
-  <si>
-    <t>Curved Surface Area Of Cylinder</t>
-  </si>
-  <si>
-    <t>Total Surface Area Of Cube</t>
-  </si>
-  <si>
-    <t>Fibonacci Series In Java Programs</t>
-  </si>
-  <si>
-    <t>Subtract the Product and Sum of Digits of an Integer</t>
-  </si>
-  <si>
     <t>Input a number and print all the factors of that number (use loops).</t>
   </si>
   <si>
@@ -153,9 +63,6 @@
     <t>Take integer inputs till the user enters 0 and print the largest number from all.</t>
   </si>
   <si>
-    <t>Addition Of Two Numbers</t>
-  </si>
-  <si>
     <t>Intermediate Java Programs</t>
   </si>
   <si>
@@ -456,14 +363,17 @@
     <t>Linked-In; Rajesh &amp; Sri Sai</t>
   </si>
   <si>
-    <t>I did questions on Star Shapes</t>
+    <t>Today I solved Shapes Problems from Raj Vikramaditya's A-Z DSA in Eclipse using Java.</t>
+  </si>
+  <si>
+    <t>Automorphic Number in Apex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +413,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -524,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -584,19 +502,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -608,36 +538,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,397 +911,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4C1C31-78C7-4F8C-BA94-0B6EEFCB5499}">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>118</v>
+      <c r="B1" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+    </row>
+    <row r="10" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="21"/>
+      <c r="B71" s="22"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="21"/>
+      <c r="B75" s="22"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="21"/>
+      <c r="B79" s="22"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="21"/>
+      <c r="B83" s="22"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1367,198 +1368,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>113</v>
+      <c r="A2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1570,215 +1571,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA90A44-27CF-4EE2-AF22-D206370FACFE}">
   <dimension ref="A4:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="6" max="6" width="44.453125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" customWidth="1"/>
-    <col min="9" max="9" width="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="10" customWidth="1"/>
+    <col min="3" max="5" width="8.7265625" style="10"/>
+    <col min="6" max="6" width="44.453125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="10"/>
+    <col min="8" max="8" width="19.453125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="40" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.6">
-      <c r="A4" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="E4" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="H4" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="H4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
-      <c r="H8" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>137</v>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
-      <c r="B10" s="19" t="s">
-        <v>122</v>
+      <c r="B10" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="F10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="A11" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
-      <c r="B12" s="19" t="s">
-        <v>129</v>
+      <c r="B12" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="F12" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="A13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="E13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="A14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="F15" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="12"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="12"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="12"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="12"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="12"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A4:B4"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\100-days-of-code-srajat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA5589A-8DDB-4780-BFCE-41B07B617C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90A8168-85DA-42AD-9CB6-ECA97BB6DB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{98CC105A-234D-4119-BF40-9FE794B00565}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="2" xr2:uid="{98CC105A-234D-4119-BF40-9FE794B00565}"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
   <si>
     <t>Questions</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>Automorphic Number in Apex</t>
+  </si>
+  <si>
+    <t>Day 5</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -517,11 +520,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -545,15 +574,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -565,15 +591,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -596,6 +613,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4C1C31-78C7-4F8C-BA94-0B6EEFCB5499}">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -934,25 +972,25 @@
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
@@ -973,14 +1011,14 @@
       <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
@@ -1187,164 +1225,164 @@
       <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="18"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="18"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="18"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="18"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="18"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="18"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="18"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="18"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="18"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="21"/>
-      <c r="B77" s="22"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="18"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="18"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="21"/>
-      <c r="B81" s="22"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="18"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="18"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="21"/>
-      <c r="B83" s="22"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="18"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1571,227 +1609,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA90A44-27CF-4EE2-AF22-D206370FACFE}">
   <dimension ref="A4:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" style="10" customWidth="1"/>
-    <col min="3" max="5" width="8.7265625" style="10"/>
-    <col min="6" max="6" width="44.453125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="10"/>
-    <col min="8" max="8" width="19.453125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="40" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="11.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="9" customWidth="1"/>
+    <col min="3" max="5" width="8.7265625" style="9"/>
+    <col min="6" max="6" width="44.453125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="9"/>
+    <col min="8" max="8" width="19.453125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="40" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="27"/>
+      <c r="E4" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="H4" s="11" t="s">
+      <c r="F4" s="29"/>
+      <c r="H4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="H8" s="14" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="26"/>
+      <c r="B10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="16" t="s">
+    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="15" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="26"/>
+      <c r="B12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
     <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="E13" s="16" t="s">
+      <c r="B13" s="13"/>
+      <c r="E13" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="15" t="s">
+      <c r="B14" s="13"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="15" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H10:H11"/>
+  <mergeCells count="7">
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A4:B4"/>
